--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/04.TraBH/TBH2012010_Techglobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/04.TraBH/TBH2012010_Techglobal.xlsx
@@ -119,9 +119,6 @@
     <t>Thiết bị chạy baurdrate 115200</t>
   </si>
   <si>
-    <t>IMEI TB mới : 868183035938625</t>
-  </si>
-  <si>
     <t>Thiết bị có dầu hiệu độ ẩm cao</t>
   </si>
   <si>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>Người đại diện: Techglobal</t>
+  </si>
+  <si>
+    <t>IMEI TB mới : 860157040230804</t>
   </si>
 </sst>
 </file>
@@ -848,6 +848,102 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -856,102 +952,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1309,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A17" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1330,77 +1330,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67"/>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="58" t="s">
+      <c r="A1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="60"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="61" t="s">
+      <c r="A2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="63"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="61" t="s">
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="63"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54"/>
     </row>
     <row r="4" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="64" t="s">
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="66"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="57"/>
     </row>
     <row r="5" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="76"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
       <c r="E6" s="17"/>
       <c r="F6" s="32"/>
       <c r="G6" s="12"/>
@@ -1409,58 +1409,58 @@
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
-      <c r="B7" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
+      <c r="B7" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="70"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="49"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="68"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="70"/>
       <c r="M9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26"/>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="72"/>
       <c r="L10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1508,12 +1508,12 @@
       <c r="E12" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="77"/>
+      <c r="F12" s="46"/>
       <c r="G12" s="43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12" s="43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I12" s="36"/>
     </row>
@@ -1535,10 +1535,10 @@
         <v>30</v>
       </c>
       <c r="G13" s="43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="36"/>
     </row>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="F14" s="44"/>
       <c r="G14" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14" s="43" t="s">
         <v>26</v>
@@ -1580,10 +1580,10 @@
         <v>24</v>
       </c>
       <c r="F15" s="44" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="G15" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15" s="43" t="s">
         <v>28</v>
@@ -1608,10 +1608,10 @@
         <v>30</v>
       </c>
       <c r="G16" s="43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H16" s="43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I16" s="36"/>
     </row>
@@ -1631,10 +1631,10 @@
       </c>
       <c r="F17" s="44"/>
       <c r="G17" s="43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I17" s="36"/>
     </row>
@@ -1653,13 +1653,13 @@
         <v>18</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18" s="43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I18" s="36"/>
     </row>
@@ -1681,10 +1681,10 @@
         <v>30</v>
       </c>
       <c r="G19" s="43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H19" s="43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I19" s="36"/>
     </row>
@@ -1702,12 +1702,12 @@
       <c r="E20" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="77"/>
+      <c r="F20" s="46"/>
       <c r="G20" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="43" t="s">
         <v>41</v>
-      </c>
-      <c r="H20" s="43" t="s">
-        <v>42</v>
       </c>
       <c r="I20" s="36"/>
     </row>
@@ -1716,7 +1716,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="30">
         <v>864161029412645</v>
@@ -1725,11 +1725,11 @@
       <c r="E21" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="78" t="s">
-        <v>44</v>
+      <c r="F21" s="47" t="s">
+        <v>43</v>
       </c>
       <c r="G21" s="43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H21" s="43" t="s">
         <v>26</v>
@@ -1741,7 +1741,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="30">
         <v>864161026901582</v>
@@ -1750,11 +1750,11 @@
       <c r="E22" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="78" t="s">
-        <v>47</v>
+      <c r="F22" s="47" t="s">
+        <v>46</v>
       </c>
       <c r="G22" s="43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H22" s="43" t="s">
         <v>27</v>
@@ -1766,25 +1766,25 @@
         <v>12</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="30">
         <v>865904028280730</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="79" t="s">
-        <v>48</v>
+      <c r="F23" s="48" t="s">
+        <v>47</v>
       </c>
       <c r="G23" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H23" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I23" s="36">
         <v>10000</v>
@@ -1795,21 +1795,21 @@
         <v>13</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="76" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>45</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="78"/>
+      <c r="F24" s="47"/>
       <c r="G24" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="43" t="s">
         <v>52</v>
-      </c>
-      <c r="H24" s="43" t="s">
-        <v>53</v>
       </c>
       <c r="I24" s="36">
         <v>100000</v>
@@ -1820,7 +1820,7 @@
         <v>14</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="30">
         <v>861693034932657</v>
@@ -1831,10 +1831,10 @@
       </c>
       <c r="F25" s="44"/>
       <c r="G25" s="43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H25" s="43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I25" s="36"/>
     </row>
@@ -1866,23 +1866,23 @@
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D28" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
+      <c r="D28" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
       <c r="F29" s="35"/>
       <c r="G29" s="35"/>
       <c r="H29" s="38" t="s">
@@ -1935,43 +1935,43 @@
       <c r="I33" s="20"/>
     </row>
     <row r="35" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
       <c r="H35" s="37" t="s">
         <v>19</v>
       </c>
       <c r="I35" s="34"/>
     </row>
     <row r="38" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="77"/>
     </row>
     <row r="77" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A35:E35"/>
     <mergeCell ref="B8:I8"/>
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A1:E4"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
